--- a/Arduino/MotorStepResponse/MotorStepResponse.xlsx
+++ b/Arduino/MotorStepResponse/MotorStepResponse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoãoLucas\Desktop\TCC_Caio\Arduino\MotorStepResponse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caios\OneDrive\Área de Trabalho\Robot-autonome\Arduino\MotorStepResponse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6830AB-DD6B-41FA-9587-3955B2F33B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE4738-3470-4965-B1FD-679356853FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{25891CFC-545A-4CFC-82E8-E42B2B13ACB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25891CFC-545A-4CFC-82E8-E42B2B13ACB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Vitesse (mm/s)</t>
   </si>
@@ -44,18 +46,28 @@
     <t>Samples</t>
   </si>
   <si>
-    <t>Sample Time</t>
+    <t>Sample</t>
   </si>
   <si>
-    <t>Sample</t>
+    <t>Sample Time (us)</t>
+  </si>
+  <si>
+    <t>Vitesse (m/s)</t>
+  </si>
+  <si>
+    <t>Temp (s)</t>
+  </si>
+  <si>
+    <t>0.03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -204,221 +217,221 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4157384615384618</c:v>
+                  <c:v>3.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8314769230769237</c:v>
+                  <c:v>6.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.247215384615386</c:v>
+                  <c:v>1.0200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.662953846153847</c:v>
+                  <c:v>1.37E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.078692307692307</c:v>
+                  <c:v>1.7100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.494430769230771</c:v>
+                  <c:v>2.049443076923077E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.910169230769231</c:v>
+                  <c:v>2.3910169230769232E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.325907692307695</c:v>
+                  <c:v>2.7325907692307694E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.741646153846155</c:v>
+                  <c:v>3.0741646153846156E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.157384615384615</c:v>
+                  <c:v>3.4157384615384617E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.573123076923075</c:v>
+                  <c:v>3.7573123076923072E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.988861538461542</c:v>
+                  <c:v>4.0988861538461541E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.404600000000009</c:v>
+                  <c:v>4.4404600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.820338461538462</c:v>
+                  <c:v>4.7820338461538464E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.236076923076922</c:v>
+                  <c:v>5.1236076923076919E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.651815384615389</c:v>
+                  <c:v>5.4651815384615388E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.067553846153849</c:v>
+                  <c:v>5.8067553846153849E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.483292307692309</c:v>
+                  <c:v>6.1483292307692311E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64.899030769230762</c:v>
+                  <c:v>6.4899030769230773E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>68.31476923076923</c:v>
+                  <c:v>6.8314769230769234E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71.730507692307697</c:v>
+                  <c:v>7.1730507692307696E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.14624615384615</c:v>
+                  <c:v>7.5146246153846144E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78.561984615384617</c:v>
+                  <c:v>7.856198461538462E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81.977723076923084</c:v>
+                  <c:v>8.1977723076923081E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>85.393461538461551</c:v>
+                  <c:v>8.5393461538461543E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.809200000000018</c:v>
+                  <c:v>8.8809200000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>92.224938461538457</c:v>
+                  <c:v>9.2224938461538467E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>95.640676923076924</c:v>
+                  <c:v>9.5640676923076928E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99.056415384615391</c:v>
+                  <c:v>9.905641538461539E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>102.47215384615384</c:v>
+                  <c:v>0.10247215384615384</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>105.88789230769231</c:v>
+                  <c:v>0.10588789230769231</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>109.30363076923078</c:v>
+                  <c:v>0.10930363076923078</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>112.71936923076925</c:v>
+                  <c:v>0.11271936923076924</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>116.1351076923077</c:v>
+                  <c:v>0.1161351076923077</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>119.55084615384615</c:v>
+                  <c:v>0.11955084615384616</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>122.96658461538462</c:v>
+                  <c:v>0.12296658461538462</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>126.38232307692309</c:v>
+                  <c:v>0.1263823230769231</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>129.79806153846152</c:v>
+                  <c:v>0.12979806153846155</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>133.21380000000002</c:v>
+                  <c:v>0.13321380000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>136.62953846153846</c:v>
+                  <c:v>0.13662953846153847</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>140.04527692307693</c:v>
+                  <c:v>0.14004527692307692</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>143.46101538461539</c:v>
+                  <c:v>0.14346101538461539</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>146.87675384615386</c:v>
+                  <c:v>0.14687675384615384</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>150.2924923076923</c:v>
+                  <c:v>0.15029249230769229</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>153.70823076923077</c:v>
+                  <c:v>0.15370823076923079</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>157.12396923076923</c:v>
+                  <c:v>0.15712396923076924</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>160.5397076923077</c:v>
+                  <c:v>0.16053970769230771</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>163.95544615384617</c:v>
+                  <c:v>0.16395544615384616</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>167.37118461538461</c:v>
+                  <c:v>0.16737118461538461</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>170.7869230769231</c:v>
+                  <c:v>0.17078692307692309</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>174.20266153846154</c:v>
+                  <c:v>0.17420266153846153</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>177.61840000000004</c:v>
+                  <c:v>0.17761840000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>181.03413846153848</c:v>
+                  <c:v>0.18103413846153849</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>184.44987692307691</c:v>
+                  <c:v>0.18444987692307693</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>187.86561538461541</c:v>
+                  <c:v>0.18786561538461541</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>191.28135384615385</c:v>
+                  <c:v>0.19128135384615386</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>194.69709230769232</c:v>
+                  <c:v>0.1946970923076923</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>198.11283076923078</c:v>
+                  <c:v>0.19811283076923078</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>201.52856923076925</c:v>
+                  <c:v>0.20152856923076923</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>204.94430769230769</c:v>
+                  <c:v>0.20494430769230768</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>208.36004615384616</c:v>
+                  <c:v>0.20836004615384618</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>211.77578461538462</c:v>
+                  <c:v>0.21177578461538463</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>215.19152307692309</c:v>
+                  <c:v>0.2151915230769231</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>218.60726153846156</c:v>
+                  <c:v>0.21860726153846155</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>222.023</c:v>
+                  <c:v>0.222023</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>225.43873846153849</c:v>
+                  <c:v>0.22543873846153847</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.85447692307693</c:v>
+                  <c:v>0.22885447692307692</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>232.2702153846154</c:v>
+                  <c:v>0.2322702153846154</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>235.68595384615386</c:v>
+                  <c:v>0.23568595384615387</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>239.1016923076923</c:v>
+                  <c:v>0.23910169230769232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$G$3:$G$73</c:f>
+              <c:f>Planilha1!$H$3:$H$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -444,196 +457,196 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>104</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>104</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>104</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>104</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>102</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>102</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>97</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>97</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>97</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>97</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>102</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>99</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,6 +690,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -717,6 +744,7 @@
         <c:crossAx val="678753984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="678753984"/>
@@ -729,9 +757,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="99000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -739,6 +766,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -779,6 +820,7 @@
         <c:crossAx val="678730688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1386,15 +1428,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1719,34 +1761,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58D2EC8-6529-4B21-8E51-82BD9BB48040}">
-  <dimension ref="B2:G1302"/>
+  <dimension ref="B2:K1302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>4440460</v>
       </c>
@@ -1754,26 +1800,32 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>E3*$B$9/1000</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="0">G3/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>E4*$B$9/1000</f>
-        <v>3.4157384615384618</v>
-      </c>
-      <c r="G4">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1781,14 +1833,17 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f>E5*$B$9/1000</f>
-        <v>6.8314769230769237</v>
-      </c>
-      <c r="G5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1300</v>
       </c>
@@ -1796,41 +1851,50 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <f>E6*$B$9/1000</f>
-        <v>10.247215384615386</v>
-      </c>
-      <c r="G6">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" s="1">
-        <f>E7*$B$9/1000</f>
-        <v>13.662953846153847</v>
-      </c>
-      <c r="G7">
+        <v>1.37E-2</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <f>E8*$B$9/1000</f>
-        <v>17.078692307692307</v>
-      </c>
-      <c r="G8">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B3/B6</f>
         <v>3415.7384615384617</v>
@@ -1839,4470 +1903,4734 @@
         <v>6</v>
       </c>
       <c r="F9" s="1">
-        <f>E9*$B$9/1000</f>
-        <v>20.494430769230771</v>
-      </c>
-      <c r="G9">
+        <f>(E9*$B$9/1000000)</f>
+        <v>2.049443076923077E-2</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10" s="1">
-        <f>E10*$B$9/1000</f>
-        <v>23.910169230769231</v>
-      </c>
-      <c r="G10">
+        <f t="shared" ref="F10:F73" si="1">(E10*$B$9/1000000)</f>
+        <v>2.3910169230769232E-2</v>
+      </c>
+      <c r="G10" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <f>E11*$B$9/1000</f>
-        <v>27.325907692307695</v>
-      </c>
-      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.7325907692307694E-2</v>
+      </c>
+      <c r="G11" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12" s="1">
-        <f>E12*$B$9/1000</f>
-        <v>30.741646153846155</v>
-      </c>
-      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>3.0741646153846156E-2</v>
+      </c>
+      <c r="G12" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <f>E13*$B$9/1000</f>
-        <v>34.157384615384615</v>
-      </c>
-      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3.4157384615384617E-2</v>
+      </c>
+      <c r="G13" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14" s="1">
-        <f>E14*$B$9/1000</f>
-        <v>37.573123076923075</v>
-      </c>
-      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3.7573123076923072E-2</v>
+      </c>
+      <c r="G14" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>12</v>
       </c>
       <c r="F15" s="1">
-        <f>E15*$B$9/1000</f>
-        <v>40.988861538461542</v>
-      </c>
-      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4.0988861538461541E-2</v>
+      </c>
+      <c r="G15" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>13</v>
       </c>
       <c r="F16" s="1">
-        <f>E16*$B$9/1000</f>
-        <v>44.404600000000009</v>
-      </c>
-      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4.4404600000000002E-2</v>
+      </c>
+      <c r="G16" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>14</v>
       </c>
       <c r="F17" s="1">
-        <f>E17*$B$9/1000</f>
-        <v>47.820338461538462</v>
-      </c>
-      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4.7820338461538464E-2</v>
+      </c>
+      <c r="G17" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>15</v>
       </c>
       <c r="F18" s="1">
-        <f>E18*$B$9/1000</f>
-        <v>51.236076923076922</v>
-      </c>
-      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>5.1236076923076919E-2</v>
+      </c>
+      <c r="G18" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>16</v>
       </c>
       <c r="F19" s="1">
-        <f>E19*$B$9/1000</f>
-        <v>54.651815384615389</v>
-      </c>
-      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>5.4651815384615388E-2</v>
+      </c>
+      <c r="G19" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>17</v>
       </c>
       <c r="F20" s="1">
-        <f>E20*$B$9/1000</f>
-        <v>58.067553846153849</v>
-      </c>
-      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>5.8067553846153849E-2</v>
+      </c>
+      <c r="G20" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>18</v>
       </c>
       <c r="F21" s="1">
-        <f>E21*$B$9/1000</f>
-        <v>61.483292307692309</v>
-      </c>
-      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>6.1483292307692311E-2</v>
+      </c>
+      <c r="G21" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>19</v>
       </c>
       <c r="F22" s="1">
-        <f>E22*$B$9/1000</f>
-        <v>64.899030769230762</v>
-      </c>
-      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>6.4899030769230773E-2</v>
+      </c>
+      <c r="G22" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>20</v>
       </c>
       <c r="F23" s="1">
-        <f>E23*$B$9/1000</f>
-        <v>68.31476923076923</v>
-      </c>
-      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>6.8314769230769234E-2</v>
+      </c>
+      <c r="G23" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>21</v>
       </c>
       <c r="F24" s="1">
-        <f>E24*$B$9/1000</f>
-        <v>71.730507692307697</v>
-      </c>
-      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>7.1730507692307696E-2</v>
+      </c>
+      <c r="G24" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>22</v>
       </c>
       <c r="F25" s="1">
-        <f>E25*$B$9/1000</f>
-        <v>75.14624615384615</v>
-      </c>
-      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>7.5146246153846144E-2</v>
+      </c>
+      <c r="G25" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>23</v>
       </c>
       <c r="F26" s="1">
-        <f>E26*$B$9/1000</f>
-        <v>78.561984615384617</v>
-      </c>
-      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>7.856198461538462E-2</v>
+      </c>
+      <c r="G26" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>24</v>
       </c>
       <c r="F27" s="1">
-        <f>E27*$B$9/1000</f>
-        <v>81.977723076923084</v>
-      </c>
-      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>8.1977723076923081E-2</v>
+      </c>
+      <c r="G27" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>25</v>
       </c>
       <c r="F28" s="1">
-        <f>E28*$B$9/1000</f>
-        <v>85.393461538461551</v>
-      </c>
-      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>8.5393461538461543E-2</v>
+      </c>
+      <c r="G28" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>26</v>
       </c>
       <c r="F29" s="1">
-        <f>E29*$B$9/1000</f>
-        <v>88.809200000000018</v>
-      </c>
-      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>8.8809200000000005E-2</v>
+      </c>
+      <c r="G29" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>27</v>
       </c>
       <c r="F30" s="1">
-        <f>E30*$B$9/1000</f>
-        <v>92.224938461538457</v>
-      </c>
-      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>9.2224938461538467E-2</v>
+      </c>
+      <c r="G30" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>28</v>
       </c>
       <c r="F31" s="1">
-        <f>E31*$B$9/1000</f>
-        <v>95.640676923076924</v>
-      </c>
-      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>9.5640676923076928E-2</v>
+      </c>
+      <c r="G31" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>29</v>
       </c>
       <c r="F32" s="1">
-        <f>E32*$B$9/1000</f>
-        <v>99.056415384615391</v>
-      </c>
-      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>9.905641538461539E-2</v>
+      </c>
+      <c r="G32" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>30</v>
       </c>
       <c r="F33" s="1">
-        <f>E33*$B$9/1000</f>
-        <v>102.47215384615384</v>
-      </c>
-      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.10247215384615384</v>
+      </c>
+      <c r="G33" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>31</v>
       </c>
       <c r="F34" s="1">
-        <f>E34*$B$9/1000</f>
-        <v>105.88789230769231</v>
-      </c>
-      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.10588789230769231</v>
+      </c>
+      <c r="G34" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>32</v>
       </c>
       <c r="F35" s="1">
-        <f>E35*$B$9/1000</f>
-        <v>109.30363076923078</v>
-      </c>
-      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.10930363076923078</v>
+      </c>
+      <c r="G35" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f t="shared" ref="H35:H66" si="2">G35/1000</f>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>33</v>
       </c>
       <c r="F36" s="1">
-        <f>E36*$B$9/1000</f>
-        <v>112.71936923076925</v>
-      </c>
-      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.11271936923076924</v>
+      </c>
+      <c r="G36" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>34</v>
       </c>
       <c r="F37" s="1">
-        <f>E37*$B$9/1000</f>
-        <v>116.1351076923077</v>
-      </c>
-      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.1161351076923077</v>
+      </c>
+      <c r="G37" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>35</v>
       </c>
       <c r="F38" s="1">
-        <f>E38*$B$9/1000</f>
-        <v>119.55084615384615</v>
-      </c>
-      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.11955084615384616</v>
+      </c>
+      <c r="G38" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>36</v>
       </c>
       <c r="F39" s="1">
-        <f>E39*$B$9/1000</f>
-        <v>122.96658461538462</v>
-      </c>
-      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.12296658461538462</v>
+      </c>
+      <c r="G39" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>37</v>
       </c>
       <c r="F40" s="1">
-        <f>E40*$B$9/1000</f>
-        <v>126.38232307692309</v>
-      </c>
-      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.1263823230769231</v>
+      </c>
+      <c r="G40" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>38</v>
       </c>
       <c r="F41" s="1">
-        <f>E41*$B$9/1000</f>
-        <v>129.79806153846152</v>
-      </c>
-      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.12979806153846155</v>
+      </c>
+      <c r="G41" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>39</v>
       </c>
       <c r="F42" s="1">
-        <f>E42*$B$9/1000</f>
-        <v>133.21380000000002</v>
-      </c>
-      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.13321380000000002</v>
+      </c>
+      <c r="G42" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>40</v>
       </c>
       <c r="F43" s="1">
-        <f>E43*$B$9/1000</f>
-        <v>136.62953846153846</v>
-      </c>
-      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.13662953846153847</v>
+      </c>
+      <c r="G43" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>41</v>
       </c>
       <c r="F44" s="1">
-        <f>E44*$B$9/1000</f>
-        <v>140.04527692307693</v>
-      </c>
-      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.14004527692307692</v>
+      </c>
+      <c r="G44" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>42</v>
       </c>
       <c r="F45" s="1">
-        <f>E45*$B$9/1000</f>
-        <v>143.46101538461539</v>
-      </c>
-      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.14346101538461539</v>
+      </c>
+      <c r="G45" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>43</v>
       </c>
       <c r="F46" s="1">
-        <f>E46*$B$9/1000</f>
-        <v>146.87675384615386</v>
-      </c>
-      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.14687675384615384</v>
+      </c>
+      <c r="G46" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>44</v>
       </c>
       <c r="F47" s="1">
-        <f>E47*$B$9/1000</f>
-        <v>150.2924923076923</v>
-      </c>
-      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.15029249230769229</v>
+      </c>
+      <c r="G47" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>45</v>
       </c>
       <c r="F48" s="1">
-        <f>E48*$B$9/1000</f>
-        <v>153.70823076923077</v>
-      </c>
-      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.15370823076923079</v>
+      </c>
+      <c r="G48" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>46</v>
       </c>
       <c r="F49" s="1">
-        <f>E49*$B$9/1000</f>
-        <v>157.12396923076923</v>
-      </c>
-      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.15712396923076924</v>
+      </c>
+      <c r="G49" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>47</v>
       </c>
       <c r="F50" s="1">
-        <f>E50*$B$9/1000</f>
-        <v>160.5397076923077</v>
-      </c>
-      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.16053970769230771</v>
+      </c>
+      <c r="G50" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>48</v>
       </c>
       <c r="F51" s="1">
-        <f>E51*$B$9/1000</f>
-        <v>163.95544615384617</v>
-      </c>
-      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.16395544615384616</v>
+      </c>
+      <c r="G51" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>49</v>
       </c>
       <c r="F52" s="1">
-        <f>E52*$B$9/1000</f>
-        <v>167.37118461538461</v>
-      </c>
-      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.16737118461538461</v>
+      </c>
+      <c r="G52" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>50</v>
       </c>
       <c r="F53" s="1">
-        <f>E53*$B$9/1000</f>
-        <v>170.7869230769231</v>
-      </c>
-      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.17078692307692309</v>
+      </c>
+      <c r="G53" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>51</v>
       </c>
       <c r="F54" s="1">
-        <f>E54*$B$9/1000</f>
-        <v>174.20266153846154</v>
-      </c>
-      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.17420266153846153</v>
+      </c>
+      <c r="G54" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>52</v>
       </c>
       <c r="F55" s="1">
-        <f>E55*$B$9/1000</f>
-        <v>177.61840000000004</v>
-      </c>
-      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.17761840000000001</v>
+      </c>
+      <c r="G55" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>53</v>
       </c>
       <c r="F56" s="1">
-        <f>E56*$B$9/1000</f>
-        <v>181.03413846153848</v>
-      </c>
-      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.18103413846153849</v>
+      </c>
+      <c r="G56" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>54</v>
       </c>
       <c r="F57" s="1">
-        <f>E57*$B$9/1000</f>
-        <v>184.44987692307691</v>
-      </c>
-      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.18444987692307693</v>
+      </c>
+      <c r="G57" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>55</v>
       </c>
       <c r="F58" s="1">
-        <f>E58*$B$9/1000</f>
-        <v>187.86561538461541</v>
-      </c>
-      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.18786561538461541</v>
+      </c>
+      <c r="G58" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>56</v>
       </c>
       <c r="F59" s="1">
-        <f>E59*$B$9/1000</f>
-        <v>191.28135384615385</v>
-      </c>
-      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.19128135384615386</v>
+      </c>
+      <c r="G59" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>57</v>
       </c>
       <c r="F60" s="1">
-        <f>E60*$B$9/1000</f>
-        <v>194.69709230769232</v>
-      </c>
-      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.1946970923076923</v>
+      </c>
+      <c r="G60" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>58</v>
       </c>
       <c r="F61" s="1">
-        <f>E61*$B$9/1000</f>
-        <v>198.11283076923078</v>
-      </c>
-      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0.19811283076923078</v>
+      </c>
+      <c r="G61" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>59</v>
       </c>
       <c r="F62" s="1">
-        <f>E62*$B$9/1000</f>
-        <v>201.52856923076925</v>
-      </c>
-      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0.20152856923076923</v>
+      </c>
+      <c r="G62" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>60</v>
       </c>
       <c r="F63" s="1">
-        <f>E63*$B$9/1000</f>
-        <v>204.94430769230769</v>
-      </c>
-      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.20494430769230768</v>
+      </c>
+      <c r="G63" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>61</v>
       </c>
       <c r="F64" s="1">
-        <f>E64*$B$9/1000</f>
-        <v>208.36004615384616</v>
-      </c>
-      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.20836004615384618</v>
+      </c>
+      <c r="G64" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>62</v>
       </c>
       <c r="F65" s="1">
-        <f>E65*$B$9/1000</f>
-        <v>211.77578461538462</v>
-      </c>
-      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.21177578461538463</v>
+      </c>
+      <c r="G65" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66">
         <v>63</v>
       </c>
       <c r="F66" s="1">
-        <f>E66*$B$9/1000</f>
-        <v>215.19152307692309</v>
-      </c>
-      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.2151915230769231</v>
+      </c>
+      <c r="G66" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>64</v>
       </c>
       <c r="F67" s="1">
-        <f>E67*$B$9/1000</f>
-        <v>218.60726153846156</v>
-      </c>
-      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>0.21860726153846155</v>
+      </c>
+      <c r="G67" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <f t="shared" ref="H67:H98" si="3">G67/1000</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>65</v>
       </c>
       <c r="F68" s="1">
-        <f>E68*$B$9/1000</f>
-        <v>222.023</v>
-      </c>
-      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0.222023</v>
+      </c>
+      <c r="G68" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f t="shared" ref="H68:H73" si="4">G68/1000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>66</v>
       </c>
       <c r="F69" s="1">
-        <f>E69*$B$9/1000</f>
-        <v>225.43873846153849</v>
-      </c>
-      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0.22543873846153847</v>
+      </c>
+      <c r="G69" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>67</v>
       </c>
       <c r="F70" s="1">
-        <f>E70*$B$9/1000</f>
-        <v>228.85447692307693</v>
-      </c>
-      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0.22885447692307692</v>
+      </c>
+      <c r="G70" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>68</v>
       </c>
       <c r="F71" s="1">
-        <f>E71*$B$9/1000</f>
-        <v>232.2702153846154</v>
-      </c>
-      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>0.2322702153846154</v>
+      </c>
+      <c r="G71" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>69</v>
       </c>
       <c r="F72" s="1">
-        <f>E72*$B$9/1000</f>
-        <v>235.68595384615386</v>
-      </c>
-      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>0.23568595384615387</v>
+      </c>
+      <c r="G72" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <f t="shared" si="4"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>70</v>
       </c>
       <c r="F73" s="1">
-        <f>E73*$B$9/1000</f>
-        <v>239.1016923076923</v>
-      </c>
-      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>0.23910169230769232</v>
+      </c>
+      <c r="G73" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <f t="shared" si="4"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F395" s="1"/>
     </row>
-    <row r="396" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F396" s="1"/>
     </row>
-    <row r="397" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F397" s="1"/>
     </row>
-    <row r="398" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F398" s="1"/>
     </row>
-    <row r="399" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F400" s="1"/>
     </row>
-    <row r="401" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F401" s="1"/>
     </row>
-    <row r="402" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F402" s="1"/>
     </row>
-    <row r="403" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F403" s="1"/>
     </row>
-    <row r="404" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F404" s="1"/>
     </row>
-    <row r="405" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F409" s="1"/>
     </row>
-    <row r="410" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F410" s="1"/>
     </row>
-    <row r="411" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F411" s="1"/>
     </row>
-    <row r="412" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F412" s="1"/>
     </row>
-    <row r="413" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F414" s="1"/>
     </row>
-    <row r="415" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F415" s="1"/>
     </row>
-    <row r="416" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F416" s="1"/>
     </row>
-    <row r="417" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F417" s="1"/>
     </row>
-    <row r="418" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F418" s="1"/>
     </row>
-    <row r="419" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F419" s="1"/>
     </row>
-    <row r="420" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F420" s="1"/>
     </row>
-    <row r="421" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F421" s="1"/>
     </row>
-    <row r="422" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F422" s="1"/>
     </row>
-    <row r="423" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F424" s="1"/>
     </row>
-    <row r="425" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F425" s="1"/>
     </row>
-    <row r="426" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F426" s="1"/>
     </row>
-    <row r="427" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F427" s="1"/>
     </row>
-    <row r="428" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F428" s="1"/>
     </row>
-    <row r="429" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F429" s="1"/>
     </row>
-    <row r="430" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F430" s="1"/>
     </row>
-    <row r="431" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F431" s="1"/>
     </row>
-    <row r="432" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F432" s="1"/>
     </row>
-    <row r="433" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F433" s="1"/>
     </row>
-    <row r="434" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F438" s="1"/>
     </row>
-    <row r="439" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F439" s="1"/>
     </row>
-    <row r="440" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F440" s="1"/>
     </row>
-    <row r="441" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F442" s="1"/>
     </row>
-    <row r="443" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F443" s="1"/>
     </row>
-    <row r="444" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F444" s="1"/>
     </row>
-    <row r="445" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F445" s="1"/>
     </row>
-    <row r="446" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F446" s="1"/>
     </row>
-    <row r="447" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F447" s="1"/>
     </row>
-    <row r="448" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F448" s="1"/>
     </row>
-    <row r="449" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F450" s="1"/>
     </row>
-    <row r="451" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F451" s="1"/>
     </row>
-    <row r="452" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F452" s="1"/>
     </row>
-    <row r="453" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F454" s="1"/>
     </row>
-    <row r="455" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F455" s="1"/>
     </row>
-    <row r="456" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F457" s="1"/>
     </row>
-    <row r="458" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F458" s="1"/>
     </row>
-    <row r="459" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F460" s="1"/>
     </row>
-    <row r="461" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F461" s="1"/>
     </row>
-    <row r="462" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F462" s="1"/>
     </row>
-    <row r="463" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F464" s="1"/>
     </row>
-    <row r="465" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F465" s="1"/>
     </row>
-    <row r="466" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F466" s="1"/>
     </row>
-    <row r="467" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F467" s="1"/>
     </row>
-    <row r="468" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F468" s="1"/>
     </row>
-    <row r="469" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F469" s="1"/>
     </row>
-    <row r="470" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F470" s="1"/>
     </row>
-    <row r="471" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F471" s="1"/>
     </row>
-    <row r="472" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F472" s="1"/>
     </row>
-    <row r="473" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F473" s="1"/>
     </row>
-    <row r="474" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F475" s="1"/>
     </row>
-    <row r="476" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F476" s="1"/>
     </row>
-    <row r="477" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F477" s="1"/>
     </row>
-    <row r="478" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F478" s="1"/>
     </row>
-    <row r="479" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F479" s="1"/>
     </row>
-    <row r="480" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F480" s="1"/>
     </row>
-    <row r="481" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F481" s="1"/>
     </row>
-    <row r="482" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F483" s="1"/>
     </row>
-    <row r="484" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F484" s="1"/>
     </row>
-    <row r="485" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F485" s="1"/>
     </row>
-    <row r="486" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F486" s="1"/>
     </row>
-    <row r="487" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F487" s="1"/>
     </row>
-    <row r="488" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F488" s="1"/>
     </row>
-    <row r="489" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F489" s="1"/>
     </row>
-    <row r="490" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F490" s="1"/>
     </row>
-    <row r="491" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F491" s="1"/>
     </row>
-    <row r="492" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F492" s="1"/>
     </row>
-    <row r="493" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F493" s="1"/>
     </row>
-    <row r="494" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F494" s="1"/>
     </row>
-    <row r="495" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F502" s="1"/>
     </row>
-    <row r="503" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F503" s="1"/>
     </row>
-    <row r="504" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F504" s="1"/>
     </row>
-    <row r="505" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F505" s="1"/>
     </row>
-    <row r="506" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F506" s="1"/>
     </row>
-    <row r="507" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F507" s="1"/>
     </row>
-    <row r="508" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F508" s="1"/>
     </row>
-    <row r="509" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F509" s="1"/>
     </row>
-    <row r="510" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F510" s="1"/>
     </row>
-    <row r="511" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F511" s="1"/>
     </row>
-    <row r="512" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F512" s="1"/>
     </row>
-    <row r="513" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F513" s="1"/>
     </row>
-    <row r="514" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F514" s="1"/>
     </row>
-    <row r="515" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F515" s="1"/>
     </row>
-    <row r="516" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F516" s="1"/>
     </row>
-    <row r="517" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F517" s="1"/>
     </row>
-    <row r="518" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F518" s="1"/>
     </row>
-    <row r="519" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F519" s="1"/>
     </row>
-    <row r="520" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F520" s="1"/>
     </row>
-    <row r="521" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F521" s="1"/>
     </row>
-    <row r="522" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F522" s="1"/>
     </row>
-    <row r="523" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F523" s="1"/>
     </row>
-    <row r="524" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F524" s="1"/>
     </row>
-    <row r="525" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F525" s="1"/>
     </row>
-    <row r="526" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F526" s="1"/>
     </row>
-    <row r="527" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F527" s="1"/>
     </row>
-    <row r="528" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F528" s="1"/>
     </row>
-    <row r="529" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F529" s="1"/>
     </row>
-    <row r="530" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F530" s="1"/>
     </row>
-    <row r="531" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F531" s="1"/>
     </row>
-    <row r="532" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F532" s="1"/>
     </row>
-    <row r="533" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F533" s="1"/>
     </row>
-    <row r="534" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F534" s="1"/>
     </row>
-    <row r="535" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F535" s="1"/>
     </row>
-    <row r="536" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F536" s="1"/>
     </row>
-    <row r="537" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F537" s="1"/>
     </row>
-    <row r="538" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F538" s="1"/>
     </row>
-    <row r="539" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F539" s="1"/>
     </row>
-    <row r="540" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F540" s="1"/>
     </row>
-    <row r="541" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F541" s="1"/>
     </row>
-    <row r="542" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F542" s="1"/>
     </row>
-    <row r="543" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F543" s="1"/>
     </row>
-    <row r="544" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F544" s="1"/>
     </row>
-    <row r="545" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F545" s="1"/>
     </row>
-    <row r="546" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F546" s="1"/>
     </row>
-    <row r="547" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F547" s="1"/>
     </row>
-    <row r="548" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F548" s="1"/>
     </row>
-    <row r="549" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F549" s="1"/>
     </row>
-    <row r="550" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F550" s="1"/>
     </row>
-    <row r="551" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F551" s="1"/>
     </row>
-    <row r="552" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F552" s="1"/>
     </row>
-    <row r="553" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F553" s="1"/>
     </row>
-    <row r="554" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F554" s="1"/>
     </row>
-    <row r="555" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F555" s="1"/>
     </row>
-    <row r="556" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F556" s="1"/>
     </row>
-    <row r="557" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F557" s="1"/>
     </row>
-    <row r="558" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F558" s="1"/>
     </row>
-    <row r="559" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F559" s="1"/>
     </row>
-    <row r="560" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F560" s="1"/>
     </row>
-    <row r="561" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F561" s="1"/>
     </row>
-    <row r="562" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F562" s="1"/>
     </row>
-    <row r="563" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F563" s="1"/>
     </row>
-    <row r="564" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F564" s="1"/>
     </row>
-    <row r="565" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F565" s="1"/>
     </row>
-    <row r="566" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F566" s="1"/>
     </row>
-    <row r="567" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F567" s="1"/>
     </row>
-    <row r="568" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F568" s="1"/>
     </row>
-    <row r="569" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F569" s="1"/>
     </row>
-    <row r="570" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F570" s="1"/>
     </row>
-    <row r="571" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F571" s="1"/>
     </row>
-    <row r="572" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F572" s="1"/>
     </row>
-    <row r="573" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F573" s="1"/>
     </row>
-    <row r="574" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F574" s="1"/>
     </row>
-    <row r="575" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F575" s="1"/>
     </row>
-    <row r="576" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F576" s="1"/>
     </row>
-    <row r="577" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F577" s="1"/>
     </row>
-    <row r="578" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F578" s="1"/>
     </row>
-    <row r="579" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F579" s="1"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F580" s="1"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F581" s="1"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F582" s="1"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F583" s="1"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F584" s="1"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F585" s="1"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F586" s="1"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F587" s="1"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F588" s="1"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F589" s="1"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F590" s="1"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F591" s="1"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F592" s="1"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F593" s="1"/>
     </row>
-    <row r="594" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F594" s="1"/>
     </row>
-    <row r="595" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F595" s="1"/>
     </row>
-    <row r="596" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F596" s="1"/>
     </row>
-    <row r="597" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F597" s="1"/>
     </row>
-    <row r="598" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F598" s="1"/>
     </row>
-    <row r="599" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F599" s="1"/>
     </row>
-    <row r="600" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F600" s="1"/>
     </row>
-    <row r="601" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F601" s="1"/>
     </row>
-    <row r="602" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F602" s="1"/>
     </row>
-    <row r="603" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F603" s="1"/>
     </row>
-    <row r="604" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F604" s="1"/>
     </row>
-    <row r="605" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F605" s="1"/>
     </row>
-    <row r="606" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F606" s="1"/>
     </row>
-    <row r="607" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F607" s="1"/>
     </row>
-    <row r="608" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F608" s="1"/>
     </row>
-    <row r="609" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F609" s="1"/>
     </row>
-    <row r="610" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F610" s="1"/>
     </row>
-    <row r="611" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F611" s="1"/>
     </row>
-    <row r="612" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F612" s="1"/>
     </row>
-    <row r="613" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F613" s="1"/>
     </row>
-    <row r="614" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F614" s="1"/>
     </row>
-    <row r="615" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F615" s="1"/>
     </row>
-    <row r="616" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F616" s="1"/>
     </row>
-    <row r="617" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F617" s="1"/>
     </row>
-    <row r="618" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F619" s="1"/>
     </row>
-    <row r="620" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F620" s="1"/>
     </row>
-    <row r="621" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F621" s="1"/>
     </row>
-    <row r="622" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F622" s="1"/>
     </row>
-    <row r="623" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F623" s="1"/>
     </row>
-    <row r="624" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F624" s="1"/>
     </row>
-    <row r="625" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F625" s="1"/>
     </row>
-    <row r="626" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F626" s="1"/>
     </row>
-    <row r="627" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F627" s="1"/>
     </row>
-    <row r="628" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F628" s="1"/>
     </row>
-    <row r="629" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F629" s="1"/>
     </row>
-    <row r="630" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F630" s="1"/>
     </row>
-    <row r="631" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F631" s="1"/>
     </row>
-    <row r="632" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F632" s="1"/>
     </row>
-    <row r="633" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F633" s="1"/>
     </row>
-    <row r="634" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F634" s="1"/>
     </row>
-    <row r="635" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F635" s="1"/>
     </row>
-    <row r="636" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F636" s="1"/>
     </row>
-    <row r="637" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F637" s="1"/>
     </row>
-    <row r="638" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F638" s="1"/>
     </row>
-    <row r="639" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F639" s="1"/>
     </row>
-    <row r="640" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F640" s="1"/>
     </row>
-    <row r="641" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F641" s="1"/>
     </row>
-    <row r="642" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F642" s="1"/>
     </row>
-    <row r="643" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F643" s="1"/>
     </row>
-    <row r="644" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F644" s="1"/>
     </row>
-    <row r="645" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F645" s="1"/>
     </row>
-    <row r="646" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F646" s="1"/>
     </row>
-    <row r="647" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F647" s="1"/>
     </row>
-    <row r="648" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F648" s="1"/>
     </row>
-    <row r="649" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F649" s="1"/>
     </row>
-    <row r="650" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F650" s="1"/>
     </row>
-    <row r="651" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F651" s="1"/>
     </row>
-    <row r="652" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F652" s="1"/>
     </row>
-    <row r="653" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F653" s="1"/>
     </row>
-    <row r="654" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F654" s="1"/>
     </row>
-    <row r="655" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F655" s="1"/>
     </row>
-    <row r="656" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F656" s="1"/>
     </row>
-    <row r="657" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F657" s="1"/>
     </row>
-    <row r="658" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F658" s="1"/>
     </row>
-    <row r="659" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F659" s="1"/>
     </row>
-    <row r="660" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F660" s="1"/>
     </row>
-    <row r="661" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F661" s="1"/>
     </row>
-    <row r="662" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F662" s="1"/>
     </row>
-    <row r="663" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F663" s="1"/>
     </row>
-    <row r="664" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F664" s="1"/>
     </row>
-    <row r="665" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F665" s="1"/>
     </row>
-    <row r="666" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F666" s="1"/>
     </row>
-    <row r="667" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F667" s="1"/>
     </row>
-    <row r="668" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F668" s="1"/>
     </row>
-    <row r="669" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F669" s="1"/>
     </row>
-    <row r="670" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F670" s="1"/>
     </row>
-    <row r="671" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F671" s="1"/>
     </row>
-    <row r="672" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F672" s="1"/>
     </row>
-    <row r="673" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F673" s="1"/>
     </row>
-    <row r="674" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F674" s="1"/>
     </row>
-    <row r="675" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F675" s="1"/>
     </row>
-    <row r="676" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F676" s="1"/>
     </row>
-    <row r="677" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F677" s="1"/>
     </row>
-    <row r="678" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F678" s="1"/>
     </row>
-    <row r="679" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F679" s="1"/>
     </row>
-    <row r="680" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F680" s="1"/>
     </row>
-    <row r="681" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F681" s="1"/>
     </row>
-    <row r="682" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F682" s="1"/>
     </row>
-    <row r="683" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F683" s="1"/>
     </row>
-    <row r="684" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F684" s="1"/>
     </row>
-    <row r="685" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F685" s="1"/>
     </row>
-    <row r="686" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F686" s="1"/>
     </row>
-    <row r="687" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F687" s="1"/>
     </row>
-    <row r="688" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F688" s="1"/>
     </row>
-    <row r="689" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F689" s="1"/>
     </row>
-    <row r="690" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F690" s="1"/>
     </row>
-    <row r="691" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F691" s="1"/>
     </row>
-    <row r="692" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F692" s="1"/>
     </row>
-    <row r="693" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F693" s="1"/>
     </row>
-    <row r="694" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F694" s="1"/>
     </row>
-    <row r="695" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F695" s="1"/>
     </row>
-    <row r="696" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F696" s="1"/>
     </row>
-    <row r="697" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F697" s="1"/>
     </row>
-    <row r="698" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F698" s="1"/>
     </row>
-    <row r="699" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F699" s="1"/>
     </row>
-    <row r="700" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F700" s="1"/>
     </row>
-    <row r="701" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F701" s="1"/>
     </row>
-    <row r="702" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F702" s="1"/>
     </row>
-    <row r="703" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F703" s="1"/>
     </row>
-    <row r="704" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F704" s="1"/>
     </row>
-    <row r="705" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F705" s="1"/>
     </row>
-    <row r="706" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F706" s="1"/>
     </row>
-    <row r="707" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F707" s="1"/>
     </row>
-    <row r="708" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F708" s="1"/>
     </row>
-    <row r="709" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F709" s="1"/>
     </row>
-    <row r="710" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F710" s="1"/>
     </row>
-    <row r="711" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F711" s="1"/>
     </row>
-    <row r="712" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F712" s="1"/>
     </row>
-    <row r="713" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F713" s="1"/>
     </row>
-    <row r="714" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F714" s="1"/>
     </row>
-    <row r="715" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F715" s="1"/>
     </row>
-    <row r="716" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F716" s="1"/>
     </row>
-    <row r="717" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F717" s="1"/>
     </row>
-    <row r="718" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F718" s="1"/>
     </row>
-    <row r="719" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F719" s="1"/>
     </row>
-    <row r="720" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F720" s="1"/>
     </row>
-    <row r="721" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F721" s="1"/>
     </row>
-    <row r="722" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F722" s="1"/>
     </row>
-    <row r="723" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F723" s="1"/>
     </row>
-    <row r="724" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F724" s="1"/>
     </row>
-    <row r="725" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F725" s="1"/>
     </row>
-    <row r="726" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F726" s="1"/>
     </row>
-    <row r="727" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F727" s="1"/>
     </row>
-    <row r="728" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F728" s="1"/>
     </row>
-    <row r="729" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F729" s="1"/>
     </row>
-    <row r="730" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F730" s="1"/>
     </row>
-    <row r="731" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F731" s="1"/>
     </row>
-    <row r="732" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F732" s="1"/>
     </row>
-    <row r="733" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F733" s="1"/>
     </row>
-    <row r="734" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F734" s="1"/>
     </row>
-    <row r="735" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F735" s="1"/>
     </row>
-    <row r="736" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F736" s="1"/>
     </row>
-    <row r="737" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F737" s="1"/>
     </row>
-    <row r="738" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F738" s="1"/>
     </row>
-    <row r="739" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F739" s="1"/>
     </row>
-    <row r="740" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F740" s="1"/>
     </row>
-    <row r="741" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F741" s="1"/>
     </row>
-    <row r="742" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F742" s="1"/>
     </row>
-    <row r="743" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F743" s="1"/>
     </row>
-    <row r="744" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F744" s="1"/>
     </row>
-    <row r="745" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F745" s="1"/>
     </row>
-    <row r="746" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F746" s="1"/>
     </row>
-    <row r="747" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F747" s="1"/>
     </row>
-    <row r="748" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F748" s="1"/>
     </row>
-    <row r="749" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F749" s="1"/>
     </row>
-    <row r="750" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F750" s="1"/>
     </row>
-    <row r="751" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F751" s="1"/>
     </row>
-    <row r="752" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F752" s="1"/>
     </row>
-    <row r="753" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F753" s="1"/>
     </row>
-    <row r="754" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F754" s="1"/>
     </row>
-    <row r="755" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F755" s="1"/>
     </row>
-    <row r="756" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F756" s="1"/>
     </row>
-    <row r="757" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F757" s="1"/>
     </row>
-    <row r="758" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F758" s="1"/>
     </row>
-    <row r="759" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F759" s="1"/>
     </row>
-    <row r="760" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F760" s="1"/>
     </row>
-    <row r="761" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F761" s="1"/>
     </row>
-    <row r="762" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F762" s="1"/>
     </row>
-    <row r="763" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F763" s="1"/>
     </row>
-    <row r="764" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F764" s="1"/>
     </row>
-    <row r="765" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F765" s="1"/>
     </row>
-    <row r="766" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F766" s="1"/>
     </row>
-    <row r="767" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F767" s="1"/>
     </row>
-    <row r="768" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F768" s="1"/>
     </row>
-    <row r="769" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F769" s="1"/>
     </row>
-    <row r="770" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F770" s="1"/>
     </row>
-    <row r="771" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F771" s="1"/>
     </row>
-    <row r="772" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F772" s="1"/>
     </row>
-    <row r="773" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F773" s="1"/>
     </row>
-    <row r="774" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F774" s="1"/>
     </row>
-    <row r="775" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F775" s="1"/>
     </row>
-    <row r="776" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F776" s="1"/>
     </row>
-    <row r="777" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F777" s="1"/>
     </row>
-    <row r="778" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F778" s="1"/>
     </row>
-    <row r="779" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F779" s="1"/>
     </row>
-    <row r="780" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F780" s="1"/>
     </row>
-    <row r="781" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F781" s="1"/>
     </row>
-    <row r="782" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F782" s="1"/>
     </row>
-    <row r="783" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F783" s="1"/>
     </row>
-    <row r="784" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F784" s="1"/>
     </row>
-    <row r="785" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F785" s="1"/>
     </row>
-    <row r="786" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F786" s="1"/>
     </row>
-    <row r="787" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F787" s="1"/>
     </row>
-    <row r="788" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F788" s="1"/>
     </row>
-    <row r="789" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F789" s="1"/>
     </row>
-    <row r="790" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F790" s="1"/>
     </row>
-    <row r="791" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F791" s="1"/>
     </row>
-    <row r="792" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F792" s="1"/>
     </row>
-    <row r="793" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F793" s="1"/>
     </row>
-    <row r="794" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F794" s="1"/>
     </row>
-    <row r="795" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F795" s="1"/>
     </row>
-    <row r="796" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F796" s="1"/>
     </row>
-    <row r="797" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F797" s="1"/>
     </row>
-    <row r="798" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F798" s="1"/>
     </row>
-    <row r="799" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F799" s="1"/>
     </row>
-    <row r="800" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F800" s="1"/>
     </row>
-    <row r="801" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F801" s="1"/>
     </row>
-    <row r="802" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F802" s="1"/>
     </row>
-    <row r="803" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F803" s="1"/>
     </row>
-    <row r="804" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F804" s="1"/>
     </row>
-    <row r="805" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F805" s="1"/>
     </row>
-    <row r="806" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F806" s="1"/>
     </row>
-    <row r="807" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F807" s="1"/>
     </row>
-    <row r="808" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F808" s="1"/>
     </row>
-    <row r="809" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F809" s="1"/>
     </row>
-    <row r="810" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F810" s="1"/>
     </row>
-    <row r="811" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F811" s="1"/>
     </row>
-    <row r="812" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F812" s="1"/>
     </row>
-    <row r="813" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F813" s="1"/>
     </row>
-    <row r="814" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F814" s="1"/>
     </row>
-    <row r="815" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F815" s="1"/>
     </row>
-    <row r="816" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F816" s="1"/>
     </row>
-    <row r="817" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F817" s="1"/>
     </row>
-    <row r="818" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F818" s="1"/>
     </row>
-    <row r="819" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F819" s="1"/>
     </row>
-    <row r="820" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F820" s="1"/>
     </row>
-    <row r="821" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F821" s="1"/>
     </row>
-    <row r="822" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F822" s="1"/>
     </row>
-    <row r="823" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F823" s="1"/>
     </row>
-    <row r="824" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F824" s="1"/>
     </row>
-    <row r="825" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F825" s="1"/>
     </row>
-    <row r="826" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F826" s="1"/>
     </row>
-    <row r="827" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F827" s="1"/>
     </row>
-    <row r="828" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F828" s="1"/>
     </row>
-    <row r="829" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F829" s="1"/>
     </row>
-    <row r="830" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F830" s="1"/>
     </row>
-    <row r="831" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F831" s="1"/>
     </row>
-    <row r="832" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F832" s="1"/>
     </row>
-    <row r="833" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F833" s="1"/>
     </row>
-    <row r="834" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F834" s="1"/>
     </row>
-    <row r="835" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F835" s="1"/>
     </row>
-    <row r="836" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F836" s="1"/>
     </row>
-    <row r="837" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F837" s="1"/>
     </row>
-    <row r="838" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F838" s="1"/>
     </row>
-    <row r="839" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F839" s="1"/>
     </row>
-    <row r="840" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F840" s="1"/>
     </row>
-    <row r="841" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F841" s="1"/>
     </row>
-    <row r="842" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F842" s="1"/>
     </row>
-    <row r="843" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F843" s="1"/>
     </row>
-    <row r="844" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F844" s="1"/>
     </row>
-    <row r="845" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F845" s="1"/>
     </row>
-    <row r="846" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F846" s="1"/>
     </row>
-    <row r="847" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F847" s="1"/>
     </row>
-    <row r="848" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F848" s="1"/>
     </row>
-    <row r="849" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F849" s="1"/>
     </row>
-    <row r="850" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F850" s="1"/>
     </row>
-    <row r="851" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F851" s="1"/>
     </row>
-    <row r="852" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F852" s="1"/>
     </row>
-    <row r="853" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F853" s="1"/>
     </row>
-    <row r="854" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F854" s="1"/>
     </row>
-    <row r="855" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F855" s="1"/>
     </row>
-    <row r="856" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F856" s="1"/>
     </row>
-    <row r="857" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F857" s="1"/>
     </row>
-    <row r="858" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F858" s="1"/>
     </row>
-    <row r="859" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F859" s="1"/>
     </row>
-    <row r="860" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F860" s="1"/>
     </row>
-    <row r="861" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F861" s="1"/>
     </row>
-    <row r="862" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F862" s="1"/>
     </row>
-    <row r="863" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F863" s="1"/>
     </row>
-    <row r="864" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F864" s="1"/>
     </row>
-    <row r="865" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F865" s="1"/>
     </row>
-    <row r="866" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F866" s="1"/>
     </row>
-    <row r="867" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F867" s="1"/>
     </row>
-    <row r="868" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F868" s="1"/>
     </row>
-    <row r="869" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F869" s="1"/>
     </row>
-    <row r="870" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F870" s="1"/>
     </row>
-    <row r="871" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F871" s="1"/>
     </row>
-    <row r="872" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F872" s="1"/>
     </row>
-    <row r="873" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F873" s="1"/>
     </row>
-    <row r="874" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F874" s="1"/>
     </row>
-    <row r="875" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F875" s="1"/>
     </row>
-    <row r="876" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F876" s="1"/>
     </row>
-    <row r="877" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F877" s="1"/>
     </row>
-    <row r="878" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F878" s="1"/>
     </row>
-    <row r="879" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F879" s="1"/>
     </row>
-    <row r="880" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F880" s="1"/>
     </row>
-    <row r="881" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F881" s="1"/>
     </row>
-    <row r="882" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F882" s="1"/>
     </row>
-    <row r="883" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F883" s="1"/>
     </row>
-    <row r="884" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F884" s="1"/>
     </row>
-    <row r="885" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F885" s="1"/>
     </row>
-    <row r="886" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F886" s="1"/>
     </row>
-    <row r="887" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F887" s="1"/>
     </row>
-    <row r="888" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F888" s="1"/>
     </row>
-    <row r="889" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F889" s="1"/>
     </row>
-    <row r="890" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F890" s="1"/>
     </row>
-    <row r="891" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F891" s="1"/>
     </row>
-    <row r="892" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F892" s="1"/>
     </row>
-    <row r="893" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F893" s="1"/>
     </row>
-    <row r="894" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F894" s="1"/>
     </row>
-    <row r="895" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F895" s="1"/>
     </row>
-    <row r="896" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F896" s="1"/>
     </row>
-    <row r="897" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F897" s="1"/>
     </row>
-    <row r="898" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F898" s="1"/>
     </row>
-    <row r="899" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F899" s="1"/>
     </row>
-    <row r="900" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F900" s="1"/>
     </row>
-    <row r="901" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F901" s="1"/>
     </row>
-    <row r="902" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F902" s="1"/>
     </row>
-    <row r="903" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F903" s="1"/>
     </row>
-    <row r="904" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F904" s="1"/>
     </row>
-    <row r="905" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F905" s="1"/>
     </row>
-    <row r="906" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F906" s="1"/>
     </row>
-    <row r="907" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F907" s="1"/>
     </row>
-    <row r="908" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F908" s="1"/>
     </row>
-    <row r="909" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F909" s="1"/>
     </row>
-    <row r="910" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F910" s="1"/>
     </row>
-    <row r="911" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F911" s="1"/>
     </row>
-    <row r="912" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F912" s="1"/>
     </row>
-    <row r="913" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F913" s="1"/>
     </row>
-    <row r="914" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F914" s="1"/>
     </row>
-    <row r="915" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F915" s="1"/>
     </row>
-    <row r="916" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F916" s="1"/>
     </row>
-    <row r="917" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F917" s="1"/>
     </row>
-    <row r="918" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F918" s="1"/>
     </row>
-    <row r="919" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F919" s="1"/>
     </row>
-    <row r="920" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F920" s="1"/>
     </row>
-    <row r="921" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F921" s="1"/>
     </row>
-    <row r="922" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F922" s="1"/>
     </row>
-    <row r="923" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F923" s="1"/>
     </row>
-    <row r="924" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F924" s="1"/>
     </row>
-    <row r="925" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F925" s="1"/>
     </row>
-    <row r="926" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F926" s="1"/>
     </row>
-    <row r="927" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F927" s="1"/>
     </row>
-    <row r="928" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F928" s="1"/>
     </row>
-    <row r="929" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F929" s="1"/>
     </row>
-    <row r="930" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F930" s="1"/>
     </row>
-    <row r="931" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F931" s="1"/>
     </row>
-    <row r="932" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F932" s="1"/>
     </row>
-    <row r="933" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F933" s="1"/>
     </row>
-    <row r="934" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F934" s="1"/>
     </row>
-    <row r="935" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F935" s="1"/>
     </row>
-    <row r="936" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F936" s="1"/>
     </row>
-    <row r="937" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F937" s="1"/>
     </row>
-    <row r="938" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F938" s="1"/>
     </row>
-    <row r="939" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F939" s="1"/>
     </row>
-    <row r="940" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F940" s="1"/>
     </row>
-    <row r="941" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F941" s="1"/>
     </row>
-    <row r="942" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F942" s="1"/>
     </row>
-    <row r="943" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F943" s="1"/>
     </row>
-    <row r="944" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F944" s="1"/>
     </row>
-    <row r="945" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F945" s="1"/>
     </row>
-    <row r="946" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F946" s="1"/>
     </row>
-    <row r="947" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F947" s="1"/>
     </row>
-    <row r="948" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F948" s="1"/>
     </row>
-    <row r="949" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F949" s="1"/>
     </row>
-    <row r="950" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F950" s="1"/>
     </row>
-    <row r="951" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F951" s="1"/>
     </row>
-    <row r="952" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F952" s="1"/>
     </row>
-    <row r="953" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F953" s="1"/>
     </row>
-    <row r="954" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F954" s="1"/>
     </row>
-    <row r="955" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F955" s="1"/>
     </row>
-    <row r="956" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F956" s="1"/>
     </row>
-    <row r="957" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F957" s="1"/>
     </row>
-    <row r="958" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F958" s="1"/>
     </row>
-    <row r="959" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F959" s="1"/>
     </row>
-    <row r="960" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F960" s="1"/>
     </row>
-    <row r="961" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F961" s="1"/>
     </row>
-    <row r="962" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F962" s="1"/>
     </row>
-    <row r="963" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F963" s="1"/>
     </row>
-    <row r="964" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F964" s="1"/>
     </row>
-    <row r="965" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F965" s="1"/>
     </row>
-    <row r="966" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F966" s="1"/>
     </row>
-    <row r="967" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F967" s="1"/>
     </row>
-    <row r="968" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F968" s="1"/>
     </row>
-    <row r="969" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F969" s="1"/>
     </row>
-    <row r="970" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F970" s="1"/>
     </row>
-    <row r="971" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F971" s="1"/>
     </row>
-    <row r="972" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F972" s="1"/>
     </row>
-    <row r="973" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F973" s="1"/>
     </row>
-    <row r="974" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F974" s="1"/>
     </row>
-    <row r="975" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F975" s="1"/>
     </row>
-    <row r="976" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F976" s="1"/>
     </row>
-    <row r="977" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F977" s="1"/>
     </row>
-    <row r="978" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F978" s="1"/>
     </row>
-    <row r="979" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F979" s="1"/>
     </row>
-    <row r="980" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F980" s="1"/>
     </row>
-    <row r="981" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F981" s="1"/>
     </row>
-    <row r="982" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F982" s="1"/>
     </row>
-    <row r="983" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F983" s="1"/>
     </row>
-    <row r="984" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F984" s="1"/>
     </row>
-    <row r="985" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F985" s="1"/>
     </row>
-    <row r="986" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F986" s="1"/>
     </row>
-    <row r="987" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F987" s="1"/>
     </row>
-    <row r="988" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F988" s="1"/>
     </row>
-    <row r="989" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F989" s="1"/>
     </row>
-    <row r="990" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F990" s="1"/>
     </row>
-    <row r="991" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F991" s="1"/>
     </row>
-    <row r="992" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F992" s="1"/>
     </row>
-    <row r="993" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F993" s="1"/>
     </row>
-    <row r="994" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F994" s="1"/>
     </row>
-    <row r="995" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F995" s="1"/>
     </row>
-    <row r="996" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F996" s="1"/>
     </row>
-    <row r="997" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F997" s="1"/>
     </row>
-    <row r="998" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F998" s="1"/>
     </row>
-    <row r="999" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F999" s="1"/>
     </row>
-    <row r="1000" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1000" s="1"/>
     </row>
-    <row r="1001" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1001" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1001" s="1"/>
     </row>
-    <row r="1002" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1002" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1002" s="1"/>
     </row>
-    <row r="1003" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1003" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1003" s="1"/>
     </row>
-    <row r="1004" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1004" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1004" s="1"/>
     </row>
-    <row r="1005" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1005" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1005" s="1"/>
     </row>
-    <row r="1006" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1006" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1006" s="1"/>
     </row>
-    <row r="1007" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1007" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1007" s="1"/>
     </row>
-    <row r="1008" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1008" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1008" s="1"/>
     </row>
-    <row r="1009" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1009" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1009" s="1"/>
     </row>
-    <row r="1010" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1010" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1010" s="1"/>
     </row>
-    <row r="1011" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1011" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1011" s="1"/>
     </row>
-    <row r="1012" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1012" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1012" s="1"/>
     </row>
-    <row r="1013" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1013" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1013" s="1"/>
     </row>
-    <row r="1014" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1014" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1014" s="1"/>
     </row>
-    <row r="1015" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1015" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1015" s="1"/>
     </row>
-    <row r="1016" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1016" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1016" s="1"/>
     </row>
-    <row r="1017" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1017" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1017" s="1"/>
     </row>
-    <row r="1018" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1018" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1018" s="1"/>
     </row>
-    <row r="1019" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1019" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1019" s="1"/>
     </row>
-    <row r="1020" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1020" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1020" s="1"/>
     </row>
-    <row r="1021" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1021" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1021" s="1"/>
     </row>
-    <row r="1022" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1022" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1022" s="1"/>
     </row>
-    <row r="1023" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1023" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1023" s="1"/>
     </row>
-    <row r="1024" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1024" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1024" s="1"/>
     </row>
-    <row r="1025" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1025" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1025" s="1"/>
     </row>
-    <row r="1026" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1026" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1026" s="1"/>
     </row>
-    <row r="1027" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1027" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1027" s="1"/>
     </row>
-    <row r="1028" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1028" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1028" s="1"/>
     </row>
-    <row r="1029" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1029" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1029" s="1"/>
     </row>
-    <row r="1030" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1030" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1030" s="1"/>
     </row>
-    <row r="1031" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1031" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1031" s="1"/>
     </row>
-    <row r="1032" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1032" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1032" s="1"/>
     </row>
-    <row r="1033" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1033" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1033" s="1"/>
     </row>
-    <row r="1034" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1034" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1034" s="1"/>
     </row>
-    <row r="1035" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1035" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1035" s="1"/>
     </row>
-    <row r="1036" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1036" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1036" s="1"/>
     </row>
-    <row r="1037" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1037" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1037" s="1"/>
     </row>
-    <row r="1038" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1038" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1038" s="1"/>
     </row>
-    <row r="1039" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1039" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1039" s="1"/>
     </row>
-    <row r="1040" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1040" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1040" s="1"/>
     </row>
-    <row r="1041" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1041" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1041" s="1"/>
     </row>
-    <row r="1042" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1042" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1042" s="1"/>
     </row>
-    <row r="1043" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1043" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1043" s="1"/>
     </row>
-    <row r="1044" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1044" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1044" s="1"/>
     </row>
-    <row r="1045" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1045" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1045" s="1"/>
     </row>
-    <row r="1046" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1046" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1046" s="1"/>
     </row>
-    <row r="1047" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1047" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1047" s="1"/>
     </row>
-    <row r="1048" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1048" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1048" s="1"/>
     </row>
-    <row r="1049" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1049" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1049" s="1"/>
     </row>
-    <row r="1050" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1050" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1050" s="1"/>
     </row>
-    <row r="1051" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1051" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1051" s="1"/>
     </row>
-    <row r="1052" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1052" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1052" s="1"/>
     </row>
-    <row r="1053" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1053" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1053" s="1"/>
     </row>
-    <row r="1054" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1054" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1054" s="1"/>
     </row>
-    <row r="1055" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1055" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1055" s="1"/>
     </row>
-    <row r="1056" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1056" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1056" s="1"/>
     </row>
-    <row r="1057" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1057" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1057" s="1"/>
     </row>
-    <row r="1058" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1058" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1058" s="1"/>
     </row>
-    <row r="1059" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1059" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1059" s="1"/>
     </row>
-    <row r="1060" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1060" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1060" s="1"/>
     </row>
-    <row r="1061" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1061" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1061" s="1"/>
     </row>
-    <row r="1062" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1062" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1062" s="1"/>
     </row>
-    <row r="1063" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1063" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1063" s="1"/>
     </row>
-    <row r="1064" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1064" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1064" s="1"/>
     </row>
-    <row r="1065" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1065" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1065" s="1"/>
     </row>
-    <row r="1066" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1066" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1066" s="1"/>
     </row>
-    <row r="1067" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1067" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1067" s="1"/>
     </row>
-    <row r="1068" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1068" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1068" s="1"/>
     </row>
-    <row r="1069" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1069" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1069" s="1"/>
     </row>
-    <row r="1070" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1070" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1070" s="1"/>
     </row>
-    <row r="1071" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1071" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1071" s="1"/>
     </row>
-    <row r="1072" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1072" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1072" s="1"/>
     </row>
-    <row r="1073" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1073" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1073" s="1"/>
     </row>
-    <row r="1074" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1074" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1074" s="1"/>
     </row>
-    <row r="1075" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1075" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1075" s="1"/>
     </row>
-    <row r="1076" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1076" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1076" s="1"/>
     </row>
-    <row r="1077" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1077" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1077" s="1"/>
     </row>
-    <row r="1078" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1078" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1078" s="1"/>
     </row>
-    <row r="1079" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1079" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1079" s="1"/>
     </row>
-    <row r="1080" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1080" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1080" s="1"/>
     </row>
-    <row r="1081" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1081" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1081" s="1"/>
     </row>
-    <row r="1082" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1082" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1082" s="1"/>
     </row>
-    <row r="1083" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1083" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1083" s="1"/>
     </row>
-    <row r="1084" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1084" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1084" s="1"/>
     </row>
-    <row r="1085" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1085" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1085" s="1"/>
     </row>
-    <row r="1086" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1086" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1086" s="1"/>
     </row>
-    <row r="1087" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1087" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1087" s="1"/>
     </row>
-    <row r="1088" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1088" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1088" s="1"/>
     </row>
-    <row r="1089" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1089" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1089" s="1"/>
     </row>
-    <row r="1090" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1090" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1090" s="1"/>
     </row>
-    <row r="1091" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1091" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1091" s="1"/>
     </row>
-    <row r="1092" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1092" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1092" s="1"/>
     </row>
-    <row r="1093" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1093" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1093" s="1"/>
     </row>
-    <row r="1094" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1094" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1094" s="1"/>
     </row>
-    <row r="1095" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1095" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1095" s="1"/>
     </row>
-    <row r="1096" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1096" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1096" s="1"/>
     </row>
-    <row r="1097" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1097" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1097" s="1"/>
     </row>
-    <row r="1098" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1098" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1098" s="1"/>
     </row>
-    <row r="1099" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1099" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1099" s="1"/>
     </row>
-    <row r="1100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1100" s="1"/>
     </row>
-    <row r="1101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1101" s="1"/>
     </row>
-    <row r="1102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1102" s="1"/>
     </row>
-    <row r="1103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1103" s="1"/>
     </row>
-    <row r="1104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1104" s="1"/>
     </row>
-    <row r="1105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1105" s="1"/>
     </row>
-    <row r="1106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1106" s="1"/>
     </row>
-    <row r="1107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1107" s="1"/>
     </row>
-    <row r="1108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1108" s="1"/>
     </row>
-    <row r="1109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1109" s="1"/>
     </row>
-    <row r="1110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1110" s="1"/>
     </row>
-    <row r="1111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1111" s="1"/>
     </row>
-    <row r="1112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1112" s="1"/>
     </row>
-    <row r="1113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1113" s="1"/>
     </row>
-    <row r="1114" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1114" s="1"/>
     </row>
-    <row r="1115" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1115" s="1"/>
     </row>
-    <row r="1116" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1116" s="1"/>
     </row>
-    <row r="1117" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1117" s="1"/>
     </row>
-    <row r="1118" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1118" s="1"/>
     </row>
-    <row r="1119" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1119" s="1"/>
     </row>
-    <row r="1120" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1120" s="1"/>
     </row>
-    <row r="1121" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1121" s="1"/>
     </row>
-    <row r="1122" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1122" s="1"/>
     </row>
-    <row r="1123" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1123" s="1"/>
     </row>
-    <row r="1124" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1124" s="1"/>
     </row>
-    <row r="1125" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1125" s="1"/>
     </row>
-    <row r="1126" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1126" s="1"/>
     </row>
-    <row r="1127" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1127" s="1"/>
     </row>
-    <row r="1128" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1128" s="1"/>
     </row>
-    <row r="1129" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1129" s="1"/>
     </row>
-    <row r="1130" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1130" s="1"/>
     </row>
-    <row r="1131" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1131" s="1"/>
     </row>
-    <row r="1132" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1132" s="1"/>
     </row>
-    <row r="1133" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1133" s="1"/>
     </row>
-    <row r="1134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1134" s="1"/>
     </row>
-    <row r="1135" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1135" s="1"/>
     </row>
-    <row r="1136" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1136" s="1"/>
     </row>
-    <row r="1137" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1137" s="1"/>
     </row>
-    <row r="1138" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1138" s="1"/>
     </row>
-    <row r="1139" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1139" s="1"/>
     </row>
-    <row r="1140" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1140" s="1"/>
     </row>
-    <row r="1141" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1141" s="1"/>
     </row>
-    <row r="1142" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1142" s="1"/>
     </row>
-    <row r="1143" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1143" s="1"/>
     </row>
-    <row r="1144" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1144" s="1"/>
     </row>
-    <row r="1145" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1145" s="1"/>
     </row>
-    <row r="1146" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1146" s="1"/>
     </row>
-    <row r="1147" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1147" s="1"/>
     </row>
-    <row r="1148" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1148" s="1"/>
     </row>
-    <row r="1149" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1149" s="1"/>
     </row>
-    <row r="1150" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1150" s="1"/>
     </row>
-    <row r="1151" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1151" s="1"/>
     </row>
-    <row r="1152" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1152" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1152" s="1"/>
     </row>
-    <row r="1153" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1153" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1153" s="1"/>
     </row>
-    <row r="1154" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1154" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1154" s="1"/>
     </row>
-    <row r="1155" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1155" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1155" s="1"/>
     </row>
-    <row r="1156" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1156" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1156" s="1"/>
     </row>
-    <row r="1157" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1157" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1157" s="1"/>
     </row>
-    <row r="1158" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1158" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1158" s="1"/>
     </row>
-    <row r="1159" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1159" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1159" s="1"/>
     </row>
-    <row r="1160" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1160" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1160" s="1"/>
     </row>
-    <row r="1161" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1161" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1161" s="1"/>
     </row>
-    <row r="1162" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1162" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1162" s="1"/>
     </row>
-    <row r="1163" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1163" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1163" s="1"/>
     </row>
-    <row r="1164" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1164" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1164" s="1"/>
     </row>
-    <row r="1165" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1165" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1165" s="1"/>
     </row>
-    <row r="1166" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1166" s="1"/>
     </row>
-    <row r="1167" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1167" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1167" s="1"/>
     </row>
-    <row r="1168" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1168" s="1"/>
     </row>
-    <row r="1169" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1169" s="1"/>
     </row>
-    <row r="1170" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1170" s="1"/>
     </row>
-    <row r="1171" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1171" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1171" s="1"/>
     </row>
-    <row r="1172" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1172" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1172" s="1"/>
     </row>
-    <row r="1173" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1173" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1173" s="1"/>
     </row>
-    <row r="1174" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1174" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1174" s="1"/>
     </row>
-    <row r="1175" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1175" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1175" s="1"/>
     </row>
-    <row r="1176" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1176" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1176" s="1"/>
     </row>
-    <row r="1177" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1177" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1177" s="1"/>
     </row>
-    <row r="1178" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1178" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1178" s="1"/>
     </row>
-    <row r="1179" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1179" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1179" s="1"/>
     </row>
-    <row r="1180" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1180" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1180" s="1"/>
     </row>
-    <row r="1181" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1181" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1181" s="1"/>
     </row>
-    <row r="1182" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1182" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1182" s="1"/>
     </row>
-    <row r="1183" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1183" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1183" s="1"/>
     </row>
-    <row r="1184" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1184" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1184" s="1"/>
     </row>
-    <row r="1185" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1185" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1185" s="1"/>
     </row>
-    <row r="1186" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1186" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1186" s="1"/>
     </row>
-    <row r="1187" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1187" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1187" s="1"/>
     </row>
-    <row r="1188" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1188" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1188" s="1"/>
     </row>
-    <row r="1189" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1189" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1189" s="1"/>
     </row>
-    <row r="1190" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1190" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1190" s="1"/>
     </row>
-    <row r="1191" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1191" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1191" s="1"/>
     </row>
-    <row r="1192" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1192" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1192" s="1"/>
     </row>
-    <row r="1193" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1193" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1193" s="1"/>
     </row>
-    <row r="1194" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1194" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1194" s="1"/>
     </row>
-    <row r="1195" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1195" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1195" s="1"/>
     </row>
-    <row r="1196" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1196" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1196" s="1"/>
     </row>
-    <row r="1197" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1197" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1197" s="1"/>
     </row>
-    <row r="1198" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1198" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1198" s="1"/>
     </row>
-    <row r="1199" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1199" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1199" s="1"/>
     </row>
-    <row r="1200" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1200" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1200" s="1"/>
     </row>
-    <row r="1201" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1201" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1201" s="1"/>
     </row>
-    <row r="1202" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1202" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1202" s="1"/>
     </row>
-    <row r="1203" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1203" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1203" s="1"/>
     </row>
-    <row r="1204" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1204" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1204" s="1"/>
     </row>
-    <row r="1205" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1205" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1205" s="1"/>
     </row>
-    <row r="1206" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1206" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1206" s="1"/>
     </row>
-    <row r="1207" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1207" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1207" s="1"/>
     </row>
-    <row r="1208" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1208" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1208" s="1"/>
     </row>
-    <row r="1209" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1209" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1209" s="1"/>
     </row>
-    <row r="1210" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1210" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1210" s="1"/>
     </row>
-    <row r="1211" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1211" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1211" s="1"/>
     </row>
-    <row r="1212" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1212" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1212" s="1"/>
     </row>
-    <row r="1213" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1213" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1213" s="1"/>
     </row>
-    <row r="1214" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1214" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1214" s="1"/>
     </row>
-    <row r="1215" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1215" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1215" s="1"/>
     </row>
-    <row r="1216" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1216" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1216" s="1"/>
     </row>
-    <row r="1217" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1217" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1217" s="1"/>
     </row>
-    <row r="1218" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1218" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1218" s="1"/>
     </row>
-    <row r="1219" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1219" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1219" s="1"/>
     </row>
-    <row r="1220" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1220" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1220" s="1"/>
     </row>
-    <row r="1221" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1221" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1221" s="1"/>
     </row>
-    <row r="1222" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1222" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1222" s="1"/>
     </row>
-    <row r="1223" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1223" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1223" s="1"/>
     </row>
-    <row r="1224" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1224" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1224" s="1"/>
     </row>
-    <row r="1225" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1225" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1225" s="1"/>
     </row>
-    <row r="1226" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1226" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1226" s="1"/>
     </row>
-    <row r="1227" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1227" s="1"/>
     </row>
-    <row r="1228" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1228" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1228" s="1"/>
     </row>
-    <row r="1229" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1229" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1229" s="1"/>
     </row>
-    <row r="1230" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1230" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1230" s="1"/>
     </row>
-    <row r="1231" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1231" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1231" s="1"/>
     </row>
-    <row r="1232" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1232" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1232" s="1"/>
     </row>
-    <row r="1233" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1233" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1233" s="1"/>
     </row>
-    <row r="1234" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1234" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1234" s="1"/>
     </row>
-    <row r="1235" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1235" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1235" s="1"/>
     </row>
-    <row r="1236" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1236" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1236" s="1"/>
     </row>
-    <row r="1237" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1237" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1237" s="1"/>
     </row>
-    <row r="1238" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1238" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1238" s="1"/>
     </row>
-    <row r="1239" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1239" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1239" s="1"/>
     </row>
-    <row r="1240" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1240" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1240" s="1"/>
     </row>
-    <row r="1241" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1241" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1241" s="1"/>
     </row>
-    <row r="1242" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1242" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1242" s="1"/>
     </row>
-    <row r="1243" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1243" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1243" s="1"/>
     </row>
-    <row r="1244" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1244" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1244" s="1"/>
     </row>
-    <row r="1245" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1245" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1245" s="1"/>
     </row>
-    <row r="1246" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1246" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1246" s="1"/>
     </row>
-    <row r="1247" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1247" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1247" s="1"/>
     </row>
-    <row r="1248" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1248" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1248" s="1"/>
     </row>
-    <row r="1249" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1249" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1249" s="1"/>
     </row>
-    <row r="1250" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1250" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1250" s="1"/>
     </row>
-    <row r="1251" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1251" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1251" s="1"/>
     </row>
-    <row r="1252" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1252" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1252" s="1"/>
     </row>
-    <row r="1253" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1253" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1253" s="1"/>
     </row>
-    <row r="1254" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1254" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1254" s="1"/>
     </row>
-    <row r="1255" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1255" s="1"/>
     </row>
-    <row r="1256" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1256" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1256" s="1"/>
     </row>
-    <row r="1257" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1257" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1257" s="1"/>
     </row>
-    <row r="1258" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1258" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1258" s="1"/>
     </row>
-    <row r="1259" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1259" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1259" s="1"/>
     </row>
-    <row r="1260" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1260" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1260" s="1"/>
     </row>
-    <row r="1261" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1261" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1261" s="1"/>
     </row>
-    <row r="1262" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1262" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1262" s="1"/>
     </row>
-    <row r="1263" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1263" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1263" s="1"/>
     </row>
-    <row r="1264" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1264" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1264" s="1"/>
     </row>
-    <row r="1265" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1265" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1265" s="1"/>
     </row>
-    <row r="1266" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1266" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1266" s="1"/>
     </row>
-    <row r="1267" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1267" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1267" s="1"/>
     </row>
-    <row r="1268" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1268" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1268" s="1"/>
     </row>
-    <row r="1269" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1269" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1269" s="1"/>
     </row>
-    <row r="1270" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1270" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1270" s="1"/>
     </row>
-    <row r="1271" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1271" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1271" s="1"/>
     </row>
-    <row r="1272" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1272" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1272" s="1"/>
     </row>
-    <row r="1273" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1273" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1273" s="1"/>
     </row>
-    <row r="1274" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1274" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1274" s="1"/>
     </row>
-    <row r="1275" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1275" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1275" s="1"/>
     </row>
-    <row r="1276" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1276" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1276" s="1"/>
     </row>
-    <row r="1277" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1277" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1277" s="1"/>
     </row>
-    <row r="1278" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1278" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1278" s="1"/>
     </row>
-    <row r="1279" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1279" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1279" s="1"/>
     </row>
-    <row r="1280" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1280" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1280" s="1"/>
     </row>
-    <row r="1281" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1281" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1281" s="1"/>
     </row>
-    <row r="1282" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1282" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1282" s="1"/>
     </row>
-    <row r="1283" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1283" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1283" s="1"/>
     </row>
-    <row r="1284" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1284" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1284" s="1"/>
     </row>
-    <row r="1285" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1285" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1285" s="1"/>
     </row>
-    <row r="1286" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1286" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1286" s="1"/>
     </row>
-    <row r="1287" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1287" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1287" s="1"/>
     </row>
-    <row r="1288" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1288" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1288" s="1"/>
     </row>
-    <row r="1289" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1289" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1289" s="1"/>
     </row>
-    <row r="1290" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1290" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1290" s="1"/>
     </row>
-    <row r="1291" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1291" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1291" s="1"/>
     </row>
-    <row r="1292" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1292" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1292" s="1"/>
     </row>
-    <row r="1293" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1293" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1293" s="1"/>
     </row>
-    <row r="1294" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1294" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1294" s="1"/>
     </row>
-    <row r="1295" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1295" s="1"/>
     </row>
-    <row r="1296" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1296" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1296" s="1"/>
     </row>
-    <row r="1297" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1297" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1297" s="1"/>
     </row>
-    <row r="1298" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1298" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1298" s="1"/>
     </row>
-    <row r="1299" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1299" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1299" s="1"/>
     </row>
-    <row r="1300" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1300" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1300" s="1"/>
     </row>
-    <row r="1301" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1301" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1301" s="1"/>
     </row>
-    <row r="1302" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1302" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1302" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Arduino/MotorStepResponse/MotorStepResponse.xlsx
+++ b/Arduino/MotorStepResponse/MotorStepResponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caios\OneDrive\Área de Trabalho\Robot-autonome\Arduino\MotorStepResponse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE4738-3470-4965-B1FD-679356853FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3622C227-57B4-4D73-8DDA-EC90E00A67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25891CFC-545A-4CFC-82E8-E42B2B13ACB3}"/>
   </bookViews>
@@ -704,6 +704,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -780,6 +835,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Speed (mm/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1428,15 +1538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1763,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58D2EC8-6529-4B21-8E51-82BD9BB48040}">
   <dimension ref="B2:K1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,7 +2951,7 @@
         <v>99</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H98" si="3">G67/1000</f>
+        <f t="shared" ref="H67" si="3">G67/1000</f>
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
